--- a/Notebooks/LETU_v3_add_bonuses_and_NPL/res.xlsx
+++ b/Notebooks/LETU_v3_add_bonuses_and_NPL/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,18 +461,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
+          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5318603528680442</v>
+        <v>0.2817372162647583</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003391894563303272</v>
+        <v>0.00270001379828756</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -482,18 +482,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mean Baseline Regression Pipeline</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5318783936223609</v>
+        <v>0.2817427427782283</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.0007384822950435491</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -503,39 +503,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
+          <t>Mean Baseline Regression Pipeline</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5318783936223609</v>
+        <v>0.2817448234138664</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 1, 3, 14, 15, 16, 18, 19, 20, 21, 22, 23, 24, 25, 30, 32, 33, 34, 37, 40, 42, 43, 44]}, 'Elastic Net Regressor': {'alpha': 0.8360787635373778, 'l1_ratio': 0.33739616041726844, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5318837020771378</v>
+        <v>0.2817448234138664</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0009980579847794187</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 1, 3, 14, 15, 16, 18, 19, 20, 21, 22, 23, 24, 25, 30, 32, 33, 34, 37, 40, 42, 43, 44]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -545,18 +545,123 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2817644650795991</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.006971438017797374</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + RF Regressor Select From Model</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2817707941511174</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.009217822331670419</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.5319753554895097</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.01823008197201702</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C8" t="n">
+        <v>0.2817960552016752</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.01818375478490731</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2818331580346462</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.03135270409210885</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Random Forest Regressor': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2818525936755717</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.03825101749856216</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Extra Trees Regressor': {'n_estimators': 100, 'max_features': 'auto', 'max_depth': 6, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LightGBM Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2819567884272574</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.07523297529396916</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'LightGBM Regressor': {'boosting_type': 'gbdt', 'learning_rate': 0.1, 'n_estimators': 20, 'max_depth': 0, 'num_leaves': 31, 'min_child_samples': 20, 'n_jobs': -1, 'bagging_freq': 0, 'bagging_fraction': 0.9}}</t>
         </is>
       </c>
     </row>

--- a/Notebooks/LETU_v3_add_bonuses_and_NPL/res.xlsx
+++ b/Notebooks/LETU_v3_add_bonuses_and_NPL/res.xlsx
@@ -465,14 +465,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2817372162647583</v>
+        <v>0.270925743168652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00270001379828756</v>
+        <v>0.001953710170988937</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 14, 18, 19, 21, 22, 24, 25, 26, 27, 29, 32, 34, 35, 36, 38, 39, 42, 44, 45, 46, 47, 48, 49]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -482,18 +482,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
+          <t>Mean Baseline Regression Pipeline</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2817427427782283</v>
+        <v>0.270931036375866</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007384822950435491</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
         </is>
       </c>
     </row>
@@ -503,39 +503,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mean Baseline Regression Pipeline</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2817448234138664</v>
+        <v>0.270931036375866</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Baseline Regressor': {'strategy': 'mean'}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 14, 18, 19, 21, 22, 24, 25, 26, 27, 29, 32, 34, 35, 36, 38, 39, 42, 44, 45, 46, 47, 48, 49]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + Select Columns Transformer</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2817448234138664</v>
+        <v>0.2709451332434897</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.00520312025240155</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -545,18 +545,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler</t>
+          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2817644650795991</v>
+        <v>0.2709472391260648</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.006971438017797374</v>
+        <v>-0.005980396493327138</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2817707941511174</v>
+        <v>0.2709759841152036</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.009217822331670419</v>
+        <v>-0.01659010349600423</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -587,18 +587,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2817960552016752</v>
+        <v>0.2709821370606369</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01818375478490731</v>
+        <v>-0.01886114099529913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -608,18 +608,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2818331580346462</v>
+        <v>0.2709852628388805</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03135270409210885</v>
+        <v>-0.02001485829745309</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Random Forest Regressor': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 14, 18, 19, 21, 22, 24, 25, 26, 27, 29, 32, 34, 35, 36, 38, 39, 42, 44, 45, 46, 47, 48, 49]}, 'Extra Trees Regressor': {'n_estimators': 100, 'max_features': 'auto', 'max_depth': 6, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -629,18 +629,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2818525936755717</v>
+        <v>0.2710181196244635</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03825101749856216</v>
+        <v>-0.03214221957085329</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'Extra Trees Regressor': {'n_estimators': 100, 'max_features': 'auto', 'max_depth': 6, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'knn', 'boolean_impute_strategy': 'knn', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 14, 18, 19, 21, 22, 24, 25, 26, 27, 29, 32, 34, 35, 36, 38, 39, 42, 44, 45, 46, 47, 48, 49]}, 'Random Forest Regressor': {'n_estimators': 369, 'max_depth': 10, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2819567884272574</v>
+        <v>0.2710803601825476</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07523297529396916</v>
+        <v>-0.05511506126392072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 3, 5, 16, 17, 18, 20, 21, 23, 24, 25, 26, 28, 31, 33, 34, 35, 38, 41, 43, 44, 45, 46, 47, 48]}, 'LightGBM Regressor': {'boosting_type': 'gbdt', 'learning_rate': 0.1, 'n_estimators': 20, 'max_depth': 0, 'num_leaves': 31, 'min_child_samples': 20, 'n_jobs': -1, 'bagging_freq': 0, 'bagging_fraction': 0.9}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [3, 5, 14, 18, 19, 21, 22, 24, 25, 26, 27, 29, 32, 34, 35, 36, 38, 39, 42, 44, 45, 46, 47, 48, 49]}, 'LightGBM Regressor': {'boosting_type': 'gbdt', 'learning_rate': 0.1, 'n_estimators': 20, 'max_depth': 0, 'num_leaves': 31, 'min_child_samples': 20, 'n_jobs': -1, 'bagging_freq': 0, 'bagging_fraction': 0.9}}</t>
         </is>
       </c>
     </row>
